--- a/pred_ohlcv/54_21/2019-10-21 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-41902.72368275859</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-41900.72368275859</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-25344.43658275859</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-28318.06117786169</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-29116.72787786169</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-30214.07717786169</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-30214.07717786169</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-30168.83277786169</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-30385.9476778617</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-30052.84777786169</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-34476.00350307009</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-31812.95170307009</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-43075.88660307009</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-29171.03950307009</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-10761.78440307009</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-12962.04900307009</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-13435.09180307009</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1712093.31330307</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1712091.31330307</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1706213.33110307</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1706260.21350307</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1706307.09590307</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1706303.09590307</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-41902.72368275859</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-41900.72368275859</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-25344.43658275859</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-26696.06407786169</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-28308.00097786169</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-28318.06117786169</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-29116.72787786169</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-30214.07717786169</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-30168.83277786169</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-30052.84777786169</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-20137.30280307009</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-31812.95170307009</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-43075.88660307009</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-29171.03950307009</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-10761.78440307009</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-12962.04900307009</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-13435.09180307009</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1712093.31330307</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1712091.31330307</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1706213.33110307</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1706260.21350307</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1706307.09590307</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1706303.09590307</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1710780.00680307</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1710777.00680307</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
